--- a/natmiOut/OldD4/LR-pairs_lrc2p/Il33-Il1rl1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Il33-Il1rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Il1rl1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.662677039876254</v>
+        <v>1.065715333333333</v>
       </c>
       <c r="H2">
-        <v>0.662677039876254</v>
+        <v>3.197146</v>
       </c>
       <c r="I2">
-        <v>0.006823220355012955</v>
+        <v>0.01020477471765409</v>
       </c>
       <c r="J2">
-        <v>0.006823220355012955</v>
+        <v>0.0103576926890262</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>9.376556487202089</v>
+        <v>0.03135833333333334</v>
       </c>
       <c r="N2">
-        <v>9.376556487202089</v>
+        <v>0.09407500000000001</v>
       </c>
       <c r="O2">
-        <v>0.8957549563132532</v>
+        <v>0.00242785969451086</v>
       </c>
       <c r="P2">
-        <v>0.8957549563132532</v>
+        <v>0.002430212285469023</v>
       </c>
       <c r="Q2">
-        <v>6.213628697171568</v>
+        <v>0.03341905666111111</v>
       </c>
       <c r="R2">
-        <v>6.213628697171568</v>
+        <v>0.30077150995</v>
       </c>
       <c r="S2">
-        <v>0.00611193345102033</v>
+        <v>2.47757612285558E-05</v>
       </c>
       <c r="T2">
-        <v>0.00611193345102033</v>
+        <v>2.517139202198414E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.662677039876254</v>
+        <v>1.065715333333333</v>
       </c>
       <c r="H3">
-        <v>0.662677039876254</v>
+        <v>3.197146</v>
       </c>
       <c r="I3">
-        <v>0.006823220355012955</v>
+        <v>0.01020477471765409</v>
       </c>
       <c r="J3">
-        <v>0.006823220355012955</v>
+        <v>0.0103576926890262</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.47728804544673</v>
+        <v>11.10791666666667</v>
       </c>
       <c r="N3">
-        <v>0.47728804544673</v>
+        <v>33.32375</v>
       </c>
       <c r="O3">
-        <v>0.04559596402810634</v>
+        <v>0.8600094551682835</v>
       </c>
       <c r="P3">
-        <v>0.04559596402810634</v>
+        <v>0.860842802528816</v>
       </c>
       <c r="Q3">
-        <v>0.316287829124962</v>
+        <v>11.83787711305556</v>
       </c>
       <c r="R3">
-        <v>0.316287829124962</v>
+        <v>106.5408940175</v>
       </c>
       <c r="S3">
-        <v>0.0003111113098630137</v>
+        <v>0.008776202745044766</v>
       </c>
       <c r="T3">
-        <v>0.0003111113098630137</v>
+        <v>0.008916345202153538</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.662677039876254</v>
+        <v>1.065715333333333</v>
       </c>
       <c r="H4">
-        <v>0.662677039876254</v>
+        <v>3.197146</v>
       </c>
       <c r="I4">
-        <v>0.006823220355012955</v>
+        <v>0.01020477471765409</v>
       </c>
       <c r="J4">
-        <v>0.006823220355012955</v>
+        <v>0.0103576926890262</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.613925052231966</v>
+        <v>0.9583053333333332</v>
       </c>
       <c r="N4">
-        <v>0.613925052231966</v>
+        <v>2.874916</v>
       </c>
       <c r="O4">
-        <v>0.05864907965864036</v>
+        <v>0.07419497934099795</v>
       </c>
       <c r="P4">
-        <v>0.05864907965864036</v>
+        <v>0.07426687412055764</v>
       </c>
       <c r="Q4">
-        <v>0.4068340363189539</v>
+        <v>1.021280687748444</v>
       </c>
       <c r="R4">
-        <v>0.4068340363189539</v>
+        <v>9.191526189735999</v>
       </c>
       <c r="S4">
-        <v>0.0004001755941296112</v>
+        <v>0.0007571430493558831</v>
       </c>
       <c r="T4">
-        <v>0.0004001755941296112</v>
+        <v>0.0007692334591153287</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>91.9519549560987</v>
+        <v>1.065715333333333</v>
       </c>
       <c r="H5">
-        <v>91.9519549560987</v>
+        <v>3.197146</v>
       </c>
       <c r="I5">
-        <v>0.9467786161066438</v>
+        <v>0.01020477471765409</v>
       </c>
       <c r="J5">
-        <v>0.9467786161066438</v>
+        <v>0.0103576926890262</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.376556487202089</v>
+        <v>0.7809493333333334</v>
       </c>
       <c r="N5">
-        <v>9.376556487202089</v>
+        <v>2.342848</v>
       </c>
       <c r="O5">
-        <v>0.8957549563132532</v>
+        <v>0.06046352622445261</v>
       </c>
       <c r="P5">
-        <v>0.8957549563132532</v>
+        <v>0.06052211525470667</v>
       </c>
       <c r="Q5">
-        <v>862.1926997545216</v>
+        <v>0.8322696790897779</v>
       </c>
       <c r="R5">
-        <v>862.1926997545216</v>
+        <v>7.490427111808001</v>
       </c>
       <c r="S5">
-        <v>0.8480816379089291</v>
+        <v>0.0006170166637555089</v>
       </c>
       <c r="T5">
-        <v>0.8480816379089291</v>
+        <v>0.0006268694706980761</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>91.9519549560987</v>
+        <v>1.065715333333333</v>
       </c>
       <c r="H6">
-        <v>91.9519549560987</v>
+        <v>3.197146</v>
       </c>
       <c r="I6">
-        <v>0.9467786161066438</v>
+        <v>0.01020477471765409</v>
       </c>
       <c r="J6">
-        <v>0.9467786161066438</v>
+        <v>0.0103576926890262</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.47728804544673</v>
+        <v>0.0375105</v>
       </c>
       <c r="N6">
-        <v>0.47728804544673</v>
+        <v>0.075021</v>
       </c>
       <c r="O6">
-        <v>0.04559596402810634</v>
+        <v>0.00290417957175497</v>
       </c>
       <c r="P6">
-        <v>0.04559596402810634</v>
+        <v>0.001937995810450934</v>
       </c>
       <c r="Q6">
-        <v>43.8875688560021</v>
+        <v>0.039975515011</v>
       </c>
       <c r="R6">
-        <v>43.8875688560021</v>
+        <v>0.239853090066</v>
       </c>
       <c r="S6">
-        <v>0.04316928372257883</v>
+        <v>2.96364982693726E-05</v>
       </c>
       <c r="T6">
-        <v>0.04316928372257883</v>
+        <v>2.007316503727103E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,247 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>91.9519549560987</v>
+        <v>98.21435533333333</v>
       </c>
       <c r="H7">
-        <v>91.9519549560987</v>
+        <v>294.643066</v>
       </c>
       <c r="I7">
-        <v>0.9467786161066438</v>
+        <v>0.9404531762543483</v>
       </c>
       <c r="J7">
-        <v>0.9467786161066438</v>
+        <v>0.9545458138541256</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.613925052231966</v>
+        <v>0.03135833333333334</v>
       </c>
       <c r="N7">
-        <v>0.613925052231966</v>
+        <v>0.09407500000000001</v>
       </c>
       <c r="O7">
-        <v>0.05864907965864036</v>
+        <v>0.00242785969451086</v>
       </c>
       <c r="P7">
-        <v>0.05864907965864036</v>
+        <v>0.002430212285469023</v>
       </c>
       <c r="Q7">
-        <v>56.45160874925428</v>
+        <v>3.079838492661111</v>
       </c>
       <c r="R7">
-        <v>56.45160874925428</v>
+        <v>27.71854643395</v>
       </c>
       <c r="S7">
-        <v>0.05552769447513584</v>
+        <v>0.00228328836120265</v>
       </c>
       <c r="T7">
-        <v>0.05552769447513584</v>
+        <v>0.002319748963871323</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.50622962025461</v>
+        <v>98.21435533333333</v>
       </c>
       <c r="H8">
-        <v>4.50622962025461</v>
+        <v>294.643066</v>
       </c>
       <c r="I8">
-        <v>0.04639816353834311</v>
+        <v>0.9404531762543483</v>
       </c>
       <c r="J8">
-        <v>0.04639816353834311</v>
+        <v>0.9545458138541256</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.376556487202089</v>
+        <v>11.10791666666667</v>
       </c>
       <c r="N8">
-        <v>9.376556487202089</v>
+        <v>33.32375</v>
       </c>
       <c r="O8">
-        <v>0.8957549563132532</v>
+        <v>0.8600094551682835</v>
       </c>
       <c r="P8">
-        <v>0.8957549563132532</v>
+        <v>0.860842802528816</v>
       </c>
       <c r="Q8">
-        <v>42.25291657862057</v>
+        <v>1090.956874513056</v>
       </c>
       <c r="R8">
-        <v>42.25291657862057</v>
+        <v>9818.6118706175</v>
       </c>
       <c r="S8">
-        <v>0.04156138495330371</v>
+        <v>0.8087986237217838</v>
       </c>
       <c r="T8">
-        <v>0.04156138495330371</v>
+        <v>0.821713893540335</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.50622962025461</v>
+        <v>98.21435533333333</v>
       </c>
       <c r="H9">
-        <v>4.50622962025461</v>
+        <v>294.643066</v>
       </c>
       <c r="I9">
-        <v>0.04639816353834311</v>
+        <v>0.9404531762543483</v>
       </c>
       <c r="J9">
-        <v>0.04639816353834311</v>
+        <v>0.9545458138541256</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.47728804544673</v>
+        <v>0.9583053333333332</v>
       </c>
       <c r="N9">
-        <v>0.47728804544673</v>
+        <v>2.874916</v>
       </c>
       <c r="O9">
-        <v>0.04559596402810634</v>
+        <v>0.07419497934099795</v>
       </c>
       <c r="P9">
-        <v>0.04559596402810634</v>
+        <v>0.07426687412055764</v>
       </c>
       <c r="Q9">
-        <v>2.150769527785483</v>
+        <v>94.11934052582843</v>
       </c>
       <c r="R9">
-        <v>2.150769527785483</v>
+        <v>847.0740647324559</v>
       </c>
       <c r="S9">
-        <v>0.002115568995664487</v>
+        <v>0.06977690398336728</v>
       </c>
       <c r="T9">
-        <v>0.002115568995664487</v>
+        <v>0.0708911337998096</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>98.21435533333333</v>
+      </c>
+      <c r="H10">
+        <v>294.643066</v>
+      </c>
+      <c r="I10">
+        <v>0.9404531762543483</v>
+      </c>
+      <c r="J10">
+        <v>0.9545458138541256</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.7809493333333334</v>
+      </c>
+      <c r="N10">
+        <v>2.342848</v>
+      </c>
+      <c r="O10">
+        <v>0.06046352622445261</v>
+      </c>
+      <c r="P10">
+        <v>0.06052211525470667</v>
+      </c>
+      <c r="Q10">
+        <v>76.70043532132978</v>
+      </c>
+      <c r="R10">
+        <v>690.303917891968</v>
+      </c>
+      <c r="S10">
+        <v>0.05686311528532455</v>
+      </c>
+      <c r="T10">
+        <v>0.05777113176197717</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>98.21435533333333</v>
+      </c>
+      <c r="H11">
+        <v>294.643066</v>
+      </c>
+      <c r="I11">
+        <v>0.9404531762543483</v>
+      </c>
+      <c r="J11">
+        <v>0.9545458138541256</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.0375105</v>
+      </c>
+      <c r="N11">
+        <v>0.075021</v>
+      </c>
+      <c r="O11">
+        <v>0.00290417957175497</v>
+      </c>
+      <c r="P11">
+        <v>0.001937995810450934</v>
+      </c>
+      <c r="Q11">
+        <v>3.684069575731</v>
+      </c>
+      <c r="R11">
+        <v>22.104417454386</v>
+      </c>
+      <c r="S11">
+        <v>0.002731244902669955</v>
+      </c>
+      <c r="T11">
+        <v>0.001849905788132772</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.3914173333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.174252</v>
+      </c>
+      <c r="I12">
+        <v>0.00374802311866732</v>
+      </c>
+      <c r="J12">
+        <v>0.00380418703289571</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.03135833333333334</v>
+      </c>
+      <c r="N12">
+        <v>0.09407500000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.00242785969451086</v>
+      </c>
+      <c r="P12">
+        <v>0.002430212285469023</v>
+      </c>
+      <c r="Q12">
+        <v>0.01227419521111111</v>
+      </c>
+      <c r="R12">
+        <v>0.1104677569</v>
+      </c>
+      <c r="S12">
+        <v>9.09967426390728E-06</v>
+      </c>
+      <c r="T12">
+        <v>9.244982063565106E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.3914173333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.174252</v>
+      </c>
+      <c r="I13">
+        <v>0.00374802311866732</v>
+      </c>
+      <c r="J13">
+        <v>0.00380418703289571</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>11.10791666666667</v>
+      </c>
+      <c r="N13">
+        <v>33.32375</v>
+      </c>
+      <c r="O13">
+        <v>0.8600094551682835</v>
+      </c>
+      <c r="P13">
+        <v>0.860842802528816</v>
+      </c>
+      <c r="Q13">
+        <v>4.347831120555556</v>
+      </c>
+      <c r="R13">
+        <v>39.13048008500001</v>
+      </c>
+      <c r="S13">
+        <v>0.003223335320243213</v>
+      </c>
+      <c r="T13">
+        <v>0.003274807026741724</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.3914173333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.174252</v>
+      </c>
+      <c r="I14">
+        <v>0.00374802311866732</v>
+      </c>
+      <c r="J14">
+        <v>0.00380418703289571</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.9583053333333332</v>
+      </c>
+      <c r="N14">
+        <v>2.874916</v>
+      </c>
+      <c r="O14">
+        <v>0.07419497934099795</v>
+      </c>
+      <c r="P14">
+        <v>0.07426687412055764</v>
+      </c>
+      <c r="Q14">
+        <v>0.3750973180924444</v>
+      </c>
+      <c r="R14">
+        <v>3.375875862832</v>
+      </c>
+      <c r="S14">
+        <v>0.0002780844978591045</v>
+      </c>
+      <c r="T14">
+        <v>0.0002825250795031234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.3914173333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.174252</v>
+      </c>
+      <c r="I15">
+        <v>0.00374802311866732</v>
+      </c>
+      <c r="J15">
+        <v>0.00380418703289571</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.7809493333333334</v>
+      </c>
+      <c r="N15">
+        <v>2.342848</v>
+      </c>
+      <c r="O15">
+        <v>0.06046352622445261</v>
+      </c>
+      <c r="P15">
+        <v>0.06052211525470667</v>
+      </c>
+      <c r="Q15">
+        <v>0.3056771055217778</v>
+      </c>
+      <c r="R15">
+        <v>2.751093949696</v>
+      </c>
+      <c r="S15">
+        <v>0.0002266186941253962</v>
+      </c>
+      <c r="T15">
+        <v>0.0002302374460553748</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>4.50622962025461</v>
-      </c>
-      <c r="H10">
-        <v>4.50622962025461</v>
-      </c>
-      <c r="I10">
-        <v>0.04639816353834311</v>
-      </c>
-      <c r="J10">
-        <v>0.04639816353834311</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.613925052231966</v>
-      </c>
-      <c r="N10">
-        <v>0.613925052231966</v>
-      </c>
-      <c r="O10">
-        <v>0.05864907965864036</v>
-      </c>
-      <c r="P10">
-        <v>0.05864907965864036</v>
-      </c>
-      <c r="Q10">
-        <v>2.766487254984044</v>
-      </c>
-      <c r="R10">
-        <v>2.766487254984044</v>
-      </c>
-      <c r="S10">
-        <v>0.002721209589374908</v>
-      </c>
-      <c r="T10">
-        <v>0.002721209589374908</v>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.3914173333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.174252</v>
+      </c>
+      <c r="I16">
+        <v>0.00374802311866732</v>
+      </c>
+      <c r="J16">
+        <v>0.00380418703289571</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.0375105</v>
+      </c>
+      <c r="N16">
+        <v>0.075021</v>
+      </c>
+      <c r="O16">
+        <v>0.00290417957175497</v>
+      </c>
+      <c r="P16">
+        <v>0.001937995810450934</v>
+      </c>
+      <c r="Q16">
+        <v>0.014682259882</v>
+      </c>
+      <c r="R16">
+        <v>0.08809355929200001</v>
+      </c>
+      <c r="S16">
+        <v>1.088493217569899E-05</v>
+      </c>
+      <c r="T16">
+        <v>7.372498531923655E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1360653333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.408196</v>
+      </c>
+      <c r="I17">
+        <v>0.00130289583917892</v>
+      </c>
+      <c r="J17">
+        <v>0.001322419659561914</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.03135833333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.09407500000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.00242785969451086</v>
+      </c>
+      <c r="P17">
+        <v>0.002430212285469023</v>
+      </c>
+      <c r="Q17">
+        <v>0.004266782077777778</v>
+      </c>
+      <c r="R17">
+        <v>0.0384010387</v>
+      </c>
+      <c r="S17">
+        <v>3.163248294088404E-06</v>
+      </c>
+      <c r="T17">
+        <v>3.213760503213127E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1360653333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.408196</v>
+      </c>
+      <c r="I18">
+        <v>0.00130289583917892</v>
+      </c>
+      <c r="J18">
+        <v>0.001322419659561914</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>11.10791666666667</v>
+      </c>
+      <c r="N18">
+        <v>33.32375</v>
+      </c>
+      <c r="O18">
+        <v>0.8600094551682835</v>
+      </c>
+      <c r="P18">
+        <v>0.860842802528816</v>
+      </c>
+      <c r="Q18">
+        <v>1.511402383888889</v>
+      </c>
+      <c r="R18">
+        <v>13.602621455</v>
+      </c>
+      <c r="S18">
+        <v>0.001120502740793287</v>
+      </c>
+      <c r="T18">
+        <v>0.001138395445856481</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1360653333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.408196</v>
+      </c>
+      <c r="I19">
+        <v>0.00130289583917892</v>
+      </c>
+      <c r="J19">
+        <v>0.001322419659561914</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.9583053333333332</v>
+      </c>
+      <c r="N19">
+        <v>2.874916</v>
+      </c>
+      <c r="O19">
+        <v>0.07419497934099795</v>
+      </c>
+      <c r="P19">
+        <v>0.07426687412055764</v>
+      </c>
+      <c r="Q19">
+        <v>0.1303921346151111</v>
+      </c>
+      <c r="R19">
+        <v>1.173529211536</v>
+      </c>
+      <c r="S19">
+        <v>9.666832987135217E-05</v>
+      </c>
+      <c r="T19">
+        <v>9.821197439123539E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1360653333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.408196</v>
+      </c>
+      <c r="I20">
+        <v>0.00130289583917892</v>
+      </c>
+      <c r="J20">
+        <v>0.001322419659561914</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.7809493333333334</v>
+      </c>
+      <c r="N20">
+        <v>2.342848</v>
+      </c>
+      <c r="O20">
+        <v>0.06046352622445261</v>
+      </c>
+      <c r="P20">
+        <v>0.06052211525470667</v>
+      </c>
+      <c r="Q20">
+        <v>0.1062601313564445</v>
+      </c>
+      <c r="R20">
+        <v>0.956341182208</v>
+      </c>
+      <c r="S20">
+        <v>7.877767673992484E-05</v>
+      </c>
+      <c r="T20">
+        <v>8.003563505109614E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1360653333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.408196</v>
+      </c>
+      <c r="I21">
+        <v>0.00130289583917892</v>
+      </c>
+      <c r="J21">
+        <v>0.001322419659561914</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.0375105</v>
+      </c>
+      <c r="N21">
+        <v>0.075021</v>
+      </c>
+      <c r="O21">
+        <v>0.00290417957175497</v>
+      </c>
+      <c r="P21">
+        <v>0.001937995810450934</v>
+      </c>
+      <c r="Q21">
+        <v>0.005103878686000001</v>
+      </c>
+      <c r="R21">
+        <v>0.030623272116</v>
+      </c>
+      <c r="S21">
+        <v>3.783843480267969E-06</v>
+      </c>
+      <c r="T21">
+        <v>2.56284375988894E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4.625456</v>
+      </c>
+      <c r="H22">
+        <v>9.250912</v>
+      </c>
+      <c r="I22">
+        <v>0.04429113007015138</v>
+      </c>
+      <c r="J22">
+        <v>0.02996988676439071</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.03135833333333334</v>
+      </c>
+      <c r="N22">
+        <v>0.09407500000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.00242785969451086</v>
+      </c>
+      <c r="P22">
+        <v>0.002430212285469023</v>
+      </c>
+      <c r="Q22">
+        <v>0.1450465910666667</v>
+      </c>
+      <c r="R22">
+        <v>0.8702795464</v>
+      </c>
+      <c r="S22">
+        <v>0.0001075326495216585</v>
+      </c>
+      <c r="T22">
+        <v>7.283318700893777E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>4.625456</v>
+      </c>
+      <c r="H23">
+        <v>9.250912</v>
+      </c>
+      <c r="I23">
+        <v>0.04429113007015138</v>
+      </c>
+      <c r="J23">
+        <v>0.02996988676439071</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>11.10791666666667</v>
+      </c>
+      <c r="N23">
+        <v>33.32375</v>
+      </c>
+      <c r="O23">
+        <v>0.8600094551682835</v>
+      </c>
+      <c r="P23">
+        <v>0.860842802528816</v>
+      </c>
+      <c r="Q23">
+        <v>51.37917979333334</v>
+      </c>
+      <c r="R23">
+        <v>308.27507876</v>
+      </c>
+      <c r="S23">
+        <v>0.03809079064041847</v>
+      </c>
+      <c r="T23">
+        <v>0.02579936131372937</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>4.625456</v>
+      </c>
+      <c r="H24">
+        <v>9.250912</v>
+      </c>
+      <c r="I24">
+        <v>0.04429113007015138</v>
+      </c>
+      <c r="J24">
+        <v>0.02996988676439071</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.9583053333333332</v>
+      </c>
+      <c r="N24">
+        <v>2.874916</v>
+      </c>
+      <c r="O24">
+        <v>0.07419497934099795</v>
+      </c>
+      <c r="P24">
+        <v>0.07426687412055764</v>
+      </c>
+      <c r="Q24">
+        <v>4.432599153898666</v>
+      </c>
+      <c r="R24">
+        <v>26.595594923392</v>
+      </c>
+      <c r="S24">
+        <v>0.003286179480544335</v>
+      </c>
+      <c r="T24">
+        <v>0.002225769807738371</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4.625456</v>
+      </c>
+      <c r="H25">
+        <v>9.250912</v>
+      </c>
+      <c r="I25">
+        <v>0.04429113007015138</v>
+      </c>
+      <c r="J25">
+        <v>0.02996988676439071</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.7809493333333334</v>
+      </c>
+      <c r="N25">
+        <v>2.342848</v>
+      </c>
+      <c r="O25">
+        <v>0.06046352622445261</v>
+      </c>
+      <c r="P25">
+        <v>0.06052211525470667</v>
+      </c>
+      <c r="Q25">
+        <v>3.612246779562667</v>
+      </c>
+      <c r="R25">
+        <v>21.673480677376</v>
+      </c>
+      <c r="S25">
+        <v>0.00267799790450724</v>
+      </c>
+      <c r="T25">
+        <v>0.001813840940924962</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.625456</v>
+      </c>
+      <c r="H26">
+        <v>9.250912</v>
+      </c>
+      <c r="I26">
+        <v>0.04429113007015138</v>
+      </c>
+      <c r="J26">
+        <v>0.02996988676439071</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.0375105</v>
+      </c>
+      <c r="N26">
+        <v>0.075021</v>
+      </c>
+      <c r="O26">
+        <v>0.00290417957175497</v>
+      </c>
+      <c r="P26">
+        <v>0.001937995810450934</v>
+      </c>
+      <c r="Q26">
+        <v>0.173503167288</v>
+      </c>
+      <c r="R26">
+        <v>0.694012669152</v>
+      </c>
+      <c r="S26">
+        <v>0.0001286293951596759</v>
+      </c>
+      <c r="T26">
+        <v>5.808151498907808E-05</v>
       </c>
     </row>
   </sheetData>
